--- a/SIEDNL (PDR)/13 MATRIZ DE PRUEBAS/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - MIR.xlsx
+++ b/SIEDNL (PDR)/13 MATRIZ DE PRUEBAS/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - MIR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\Matris para Usuarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\SIEDNL (PDR)\13 MATRIZ DE PRUEBAS\Matriz de Pruebas\Matris para Usuarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,9 @@
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -271,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="131">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -391,9 +388,6 @@
   </si>
   <si>
     <t>PBR (SIEDNL)</t>
-  </si>
-  <si>
-    <t>http://10.200.4.165/</t>
   </si>
   <si>
     <t xml:space="preserve">Notificaciones </t>
@@ -749,6 +743,9 @@
   </si>
   <si>
     <t>Comentarios</t>
+  </si>
+  <si>
+    <t>https://tesoreria-virtual.nl.gob.mx/</t>
   </si>
 </sst>
 </file>
@@ -838,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1012,19 +1009,6 @@
       <left style="thin">
         <color rgb="FF999999"/>
       </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF999999"/>
@@ -1144,7 +1128,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1153,18 +1137,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1180,14 +1156,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1863,174 +1839,6 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.20336596687686129"/>
-                  <c:y val="-0.17354289456450556"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.14994146944815626"/>
-                      <c:h val="0.15435494433529798"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-02EC-495A-8B8F-3EA7E5F8CD95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.26180467360934712"/>
-                  <c:y val="3.9292859757952651E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.18773968997213356"/>
-                      <c:h val="0.19387688277668627"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-02EC-495A-8B8F-3EA7E5F8CD95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.21261145088001801"/>
-                  <c:y val="-8.8714325059043253E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.17420514406246199"/>
-                      <c:h val="0.19715127701375246"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-02EC-495A-8B8F-3EA7E5F8CD95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2084,36 +1892,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4:$A$7</c:f>
+              <c:f>GRAFICOS!$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Error</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pendiente</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Realizado</c:v>
+                  <c:v>Total general</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4:$B$7</c:f>
+              <c:f>GRAFICOS!$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2845,29 +2638,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Ficha Técnica"/>
-      <sheetName val="GRAFICOS"/>
-      <sheetName val="Datos"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45084.664735763887" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="281">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45253.471969791666" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="282">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:K1048576" sheet="MIR"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="11">
     <cacheField name="N° Caso" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="69"/>
     </cacheField>
@@ -2887,11 +2663,11 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="Realizado"/>
-        <s v="Pendiente"/>
-        <s v="Error"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="4">
         <m/>
+        <s v="Pendiente" u="1"/>
+        <s v="Realizado" u="1"/>
+        <s v="Error" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
@@ -2899,6 +2675,9 @@
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
       <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Comentarios" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Fecha " numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -2913,10 +2692,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="281">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="282">
   <r>
     <n v="1"/>
-    <s v="Ingresar sitio wed"/>
+    <s v="Ingresar sitio web"/>
     <s v="http://10.200.4.165/"/>
     <s v="Capturador"/>
     <m/>
@@ -2925,17 +2704,19 @@
     <m/>
     <s v="Ingresar al sitio web"/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="2"/>
     <s v="Ingresar las Credenciales "/>
-    <s v="iclechugacapturador"/>
+    <m/>
     <s v="Capturador"/>
     <m/>
     <s v="Ingresar "/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda Correcta "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2945,9 +2726,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Columnas "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Filtrado de columnas seleccionadas "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2956,10 +2738,11 @@
     <s v="Notificaciones "/>
     <s v="Capturador"/>
     <m/>
-    <s v="Exportar "/>
-    <x v="3"/>
-    <m/>
-    <s v="Generación correcta "/>
+    <s v="Recibir "/>
+    <x v="0"/>
+    <m/>
+    <s v="Entrega de Información al Usuario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2968,10 +2751,11 @@
     <s v="Inicio "/>
     <s v="Capturador"/>
     <m/>
-    <s v="Filtrado por página"/>
-    <x v="3"/>
-    <m/>
-    <s v="Se realiza muestran correctamente los número de registros consultados"/>
+    <s v="Acceso al menú principal "/>
+    <x v="0"/>
+    <m/>
+    <s v="Permite ejecutar cualquiera de las aplicaciones de la plataforma"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2981,8 +2765,9 @@
     <s v="Capturador"/>
     <m/>
     <s v="Inicio "/>
-    <x v="3"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Permite ir  al menú principal de la aplicación "/>
     <m/>
     <m/>
   </r>
@@ -2993,9 +2778,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Inicio / Configiraciones "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Muestra ventana principal de configuraciones "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3005,9 +2791,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Modifica Cambio de Contraseña "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cambia modificando la contraseña del usuario"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3017,9 +2804,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Cierra Sesión "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cerrar Sesión "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3029,9 +2817,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Busqueda Filtro "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda de MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3041,9 +2830,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Busqueda Filtro Institución "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3053,9 +2843,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Filtro Por Estado de la Mir "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3065,9 +2856,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Añadir Registro "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Permitir dar acceso al llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3077,9 +2869,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Cargar Archivo "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cargar archivo "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3089,9 +2882,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Descarga plantilla"/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Descargar plantilla "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3101,9 +2895,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Check box Anticorrupción "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Permite seleccionar la opción anticorrupción "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3113,9 +2908,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3125,9 +2921,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3137,9 +2934,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3149,9 +2947,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3161,9 +2960,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Recauda toda la información de la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3173,9 +2973,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Cancelar"/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cancela la MIR"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3185,9 +2986,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Guardar como Borrador"/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Guarda borrador en los listados de MIR"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3197,9 +2999,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Enviar "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Enviar a un capturador o verificar para su revisión "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3209,9 +3012,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Cancelar Confirmación "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cancela Confirmación "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3221,9 +3025,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Nuevo Comentario "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Agregar comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3233,9 +3038,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Cancelar Comentario "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cancelar Comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3245,9 +3051,23 @@
     <s v="Capturador"/>
     <m/>
     <s v="Confirmar "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Confirmación de la MIR para revisión"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="MIR"/>
+    <s v="Inicio MIR / Opciones "/>
+    <s v="Capturador"/>
+    <m/>
+    <s v="Comentarios "/>
+    <x v="0"/>
+    <m/>
+    <s v="Permite visualizar comentarios así como también añadir y cancelar un nuevo comentario"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3257,9 +3077,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Busqueda"/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda de MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3269,9 +3090,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Filtro Por Estado de la Mir "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3281,9 +3103,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Filtro Por Institución "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3293,9 +3116,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Añadir Registro "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Permitir dar acceso al llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3304,10 +3128,11 @@
     <s v="Inicio / MIR "/>
     <s v="Verificador"/>
     <m/>
-    <s v="Opciones Comentarios "/>
-    <x v="3"/>
+    <s v="Opciones / Comentarios "/>
+    <x v="0"/>
     <m/>
     <s v="Permite leer comentarios enviados por el capturador asi como añadir un nuevo comentario y cancelar "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3316,10 +3141,11 @@
     <s v="Inicio / MIR "/>
     <s v="Verificador"/>
     <m/>
-    <s v="Opciones Eliminar "/>
-    <x v="3"/>
+    <s v="Opciones / Eliminar "/>
+    <x v="0"/>
     <m/>
     <s v="Elimina registro "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3328,10 +3154,11 @@
     <s v="Encabezado "/>
     <s v="Verificador"/>
     <m/>
-    <s v="Editar "/>
-    <x v="3"/>
+    <s v="Opciones /Editar "/>
+    <x v="0"/>
     <m/>
     <s v="Edita el registro da pauta para enviar a usuarios correspondientes para autorización"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3341,9 +3168,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3353,9 +3181,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3365,9 +3194,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3377,9 +3207,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3389,9 +3220,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Recauda toda la información de la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3401,9 +3233,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Cancelar "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cancela registro "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3413,9 +3246,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Solicitar Modificación "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Solicitar Modificación "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3425,9 +3259,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Guardar como Borrador"/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Guardar como Borrador se almacena en el ménu principal de la MIR"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3437,9 +3272,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Enviar "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Enviar confirmación de Usuarios para autorización "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3449,9 +3285,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Cancelar Confirmación "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cancelar Confirmación "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3461,9 +3298,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Nuevo Comentario "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Agregar comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3473,9 +3311,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Cancelar Comentario "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cancelación de Comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3485,9 +3324,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Confirmar "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Confirmación de la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3497,9 +3337,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Busqueda"/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda de MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3509,9 +3350,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Filtro Por Estado de la Mir "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3521,9 +3363,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Filtro Por Institución "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3533,9 +3376,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Añadir Registro "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Permitir dar acceso al llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3544,10 +3388,11 @@
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
     <m/>
-    <s v="Opciones Comentarios "/>
-    <x v="3"/>
+    <s v="Opciones / Comentarios "/>
+    <x v="0"/>
     <m/>
     <s v="Permite leer comentarios enviados por el capturador asi como añadir un nuevo comentario y cancelar "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3556,10 +3401,11 @@
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
     <m/>
-    <s v="Opciones Eliminar "/>
-    <x v="3"/>
+    <s v="Opciones / Eliminar "/>
+    <x v="0"/>
     <m/>
     <s v="Permite Eliminar el registro, una ves autorizado ya no se podra eliminar"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3568,10 +3414,11 @@
     <s v="Inicio / MIR "/>
     <s v="Autorizador "/>
     <m/>
-    <s v="Editar "/>
-    <x v="3"/>
+    <s v="Opciones / Editar "/>
+    <x v="0"/>
     <m/>
     <s v="Edita el registro da pauta para enviar a usuarios correspondientes para autorización "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3581,9 +3428,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3593,9 +3441,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3605,9 +3454,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3617,9 +3467,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3629,9 +3480,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3641,9 +3493,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Recauda toda la información de la MIR "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3653,9 +3506,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Cancelar"/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cancela Registro "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3665,9 +3519,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Guardar como Borrador"/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Guarda como Borrador "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3677,9 +3532,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Autorizar "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Autorizar MIR y el apartado de meta anual será habilitado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3689,9 +3545,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Cancelar Confirmación "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cancelar Confirmación "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3701,9 +3558,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Nuevo Comentario "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Agregar comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3713,9 +3571,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Cancelar Comentario "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Cancelación de Comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3725,9 +3584,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Confirmar "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Confirmación de la MIR para Autorizar y el apartado de meta anual será habilitado "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3737,2515 +3597,2725 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Opciones / Descargar Mir "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Descargar MIR "/>
     <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -6257,7 +6327,8 @@
     <m/>
     <s v="oswaldo.cardenas"/>
     <m/>
-    <x v="3"/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -6269,19 +6340,21 @@
     <m/>
     <s v="oswaldo.cardenas"/>
     <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -6290,9 +6363,85 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A47:C64" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A21:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="11">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6301,30 +6450,22 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="1">
     <i t="grand">
       <x/>
     </i>
@@ -6389,80 +6530,6 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:C64" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A21:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -6750,7 +6817,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6768,112 +6835,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="16" t="s">
+      <c r="J6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6881,14 +6948,14 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>129</v>
+      <c r="B7" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
@@ -6902,12 +6969,12 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>38</v>
@@ -6921,14 +6988,14 @@
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>60</v>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
@@ -6946,16 +7013,16 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="K10" s="1"/>
     </row>
@@ -6967,16 +7034,16 @@
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -6988,16 +7055,16 @@
         <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -7009,16 +7076,16 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="K13" s="1"/>
     </row>
@@ -7030,16 +7097,16 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -7051,16 +7118,16 @@
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15" s="1"/>
     </row>
@@ -7069,19 +7136,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="1"/>
     </row>
@@ -7090,16 +7157,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
@@ -7111,16 +7178,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>15</v>
@@ -7132,19 +7199,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -7153,19 +7220,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -7174,19 +7241,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -7195,19 +7262,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -7216,19 +7283,19 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -7237,19 +7304,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -7258,19 +7325,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K25" s="1"/>
     </row>
@@ -7279,19 +7346,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K26" s="1"/>
     </row>
@@ -7300,19 +7367,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K27" s="1"/>
     </row>
@@ -7321,19 +7388,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K28" s="1"/>
     </row>
@@ -7342,19 +7409,19 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
         <v>67</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
       </c>
       <c r="J29"/>
       <c r="K29" s="1"/>
@@ -7364,19 +7431,19 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="K30" s="1"/>
     </row>
@@ -7385,20 +7452,20 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K31" s="1"/>
     </row>
@@ -7407,20 +7474,20 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32"/>
       <c r="K32" s="1"/>
@@ -7430,19 +7497,19 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33" s="1"/>
     </row>
@@ -7451,37 +7518,37 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="K35" s="1"/>
     </row>
@@ -7490,19 +7557,19 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36" s="1"/>
     </row>
@@ -7511,16 +7578,16 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>15</v>
@@ -7532,16 +7599,16 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>15</v>
@@ -7553,19 +7620,19 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" t="s">
-        <v>76</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K39" s="1"/>
     </row>
@@ -7574,19 +7641,19 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" t="s">
         <v>75</v>
       </c>
-      <c r="D40" t="s">
-        <v>76</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K40" s="1"/>
     </row>
@@ -7595,19 +7662,19 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
         <v>75</v>
       </c>
-      <c r="D41" t="s">
-        <v>76</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K41" s="1"/>
     </row>
@@ -7616,19 +7683,19 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K42" s="1"/>
     </row>
@@ -7637,19 +7704,19 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K43" s="1"/>
     </row>
@@ -7658,19 +7725,19 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K44" s="1"/>
     </row>
@@ -7679,19 +7746,19 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K45" s="1"/>
     </row>
@@ -7700,19 +7767,19 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K46" s="1"/>
     </row>
@@ -7721,19 +7788,19 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K47" s="1"/>
     </row>
@@ -7742,19 +7809,19 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K48" s="1"/>
     </row>
@@ -7763,19 +7830,19 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K49" s="1"/>
     </row>
@@ -7784,19 +7851,19 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K50" s="1"/>
     </row>
@@ -7805,19 +7872,19 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51" s="1"/>
     </row>
@@ -7826,19 +7893,19 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -7846,19 +7913,19 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -7866,19 +7933,19 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="1"/>
     </row>
@@ -7887,19 +7954,19 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K55" s="1"/>
     </row>
@@ -7908,19 +7975,19 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K56" s="1"/>
     </row>
@@ -7929,16 +7996,16 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>15</v>
@@ -7950,16 +8017,16 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>15</v>
@@ -7971,19 +8038,19 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K59" s="1"/>
     </row>
@@ -7992,19 +8059,19 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K60" s="1"/>
     </row>
@@ -8013,19 +8080,19 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K61" s="1"/>
     </row>
@@ -8034,19 +8101,19 @@
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K62" s="1"/>
     </row>
@@ -8055,19 +8122,19 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K63" s="1"/>
     </row>
@@ -8076,19 +8143,19 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K64" s="1"/>
     </row>
@@ -8097,19 +8164,19 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K65" s="1"/>
     </row>
@@ -8118,19 +8185,19 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K66" s="1"/>
     </row>
@@ -8139,19 +8206,19 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K67" s="1"/>
     </row>
@@ -8160,19 +8227,19 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K68" s="1"/>
     </row>
@@ -8181,19 +8248,19 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D69" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K69" s="1"/>
     </row>
@@ -8202,19 +8269,19 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K70" s="1"/>
     </row>
@@ -8223,19 +8290,19 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D71" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="K71" s="1"/>
     </row>
@@ -8244,19 +8311,19 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K72" s="1"/>
     </row>
@@ -8265,19 +8332,19 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K73" s="1"/>
     </row>
@@ -8286,19 +8353,19 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K74" s="1"/>
     </row>
@@ -8307,19 +8374,19 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K75" s="1"/>
     </row>
@@ -8328,19 +8395,19 @@
         <v>69</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K76" s="1"/>
     </row>
@@ -9005,7 +9072,7 @@
   <dimension ref="A3:C64"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9032,35 +9099,9 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -9068,99 +9109,99 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="7">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
